--- a/src/main/java/com/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/qa/testdata/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40B8F82A-23D4-47BD-80D0-1842DB17E672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" xr2:uid="{B4403134-CF9A-46ED-B98D-AC97DC46C7C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="3375"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,16 +85,16 @@
     <t>9918881771</t>
   </si>
   <si>
-    <t>alaksjjj@yopmail.com</t>
-  </si>
-  <si>
-    <t>uuuajdjjjj@yopmail.com</t>
+    <t>lolipp@yopmail.com</t>
+  </si>
+  <si>
+    <t>lolipop@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,22 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5351ADC-1551-44F1-9B5A-A72FD9D6ACA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="2"/>
-    <col min="8" max="8" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -498,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -527,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -558,10 +557,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5CA21473-ADBA-4BC0-84DF-5AB4D94318A4}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{0F3D24BF-D584-44D5-9C69-98C9C41AF4CD}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{47353072-69C7-433D-ACD4-96143250D4D7}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{5E365B6B-3447-425B-8BD6-C01DC2B0200D}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
